--- a/nop-rpc/nop-rpc-model/src/main/resources/_vfs/nop/rpc/imp/template.api.xlsx
+++ b/nop-rpc/nop-rpc-model/src/main/resources/_vfs/nop/rpc/imp/template.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-graphql\nop-graphql-core\src\main\resources\_vfs\nop\graphql\imp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rpc\nop-rpc-model\src\main\resources\_vfs\nop\rpc\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648163B-2210-4AAA-8927-4B4B7B10E690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5044421-2AA0-4242-AD5F-4B62E8C598E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,6 +445,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,18 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -992,87 +996,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1111,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1116,15 +1120,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="4"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -1133,15 +1137,15 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="4"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -1150,16 +1154,16 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="4"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -1170,10 +1174,13 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J8:K8"/>
@@ -1190,9 +1197,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1224,171 +1228,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="26"/>
       <c r="M1" s="7"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="26"/>
       <c r="M2" s="7"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="6"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
+      <c r="A4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -1407,7 +1411,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1417,7 +1421,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1426,7 +1430,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1436,7 +1440,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1445,7 +1449,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1464,7 +1468,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -1483,7 +1487,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1501,27 +1505,46 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="22"/>
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A15:O15"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A4:O4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
@@ -1530,6 +1553,8 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rpc/nop-rpc-model/src/main/resources/_vfs/nop/rpc/imp/template.api.xlsx
+++ b/nop-rpc/nop-rpc-model/src/main/resources/_vfs/nop/rpc/imp/template.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rpc\nop-rpc-model\src\main\resources\_vfs\nop\rpc\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5044421-2AA0-4242-AD5F-4B62E8C598E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA43228-4D75-48B9-A11F-85DCA54729F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="30720" windowHeight="13500" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>Nop平台的版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺省值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -417,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,48 +432,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,15 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -820,16 +810,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>14</v>
@@ -838,84 +828,84 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -926,7 +916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -937,32 +927,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -981,113 +971,113 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="3" width="4.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="11" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -1095,23 +1085,23 @@
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1120,15 +1110,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="4"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -1137,15 +1127,15 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="4"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -1154,36 +1144,30 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="12"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1197,6 +1181,12 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,145 +1195,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O5"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" customWidth="1"/>
-    <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="6.08203125" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="7"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="7"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
@@ -1381,16 +1364,13 @@
         <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1405,11 +1385,10 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="4"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1424,11 +1403,10 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="4"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1440,14 +1418,13 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1462,11 +1439,10 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1481,11 +1457,10 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="4"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -1500,11 +1475,10 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="4"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -1519,32 +1493,30 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="12"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A5:N5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
